--- a/biology/Histoire de la zoologie et de la botanique/Frédéric_Courtois/Frédéric_Courtois.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frédéric_Courtois/Frédéric_Courtois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Courtois</t>
+          <t>Frédéric_Courtois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Courtois est un missionnaire jésuite et un naturaliste français, né le 25 octobre 1860 aux Châtelliers-Notre-Dame, Eure-et-Loir (France), et mort le 21 septembre 1929 à Haichow, Chine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Courtois est un missionnaire jésuite et un naturaliste français, né le 25 octobre 1860 aux Châtelliers-Notre-Dame, Eure-et-Loir (France), et mort le 21 septembre 1929 à Haichow, Chine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Courtois</t>
+          <t>Frédéric_Courtois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jésuite, il est missionnaire en Chine de 1901 jusqu’à sa mort. Il dirige un muséum près de Shanghai à partir de 1903. Il fait paraître en 1912 le catalogue des oiseaux qui y sont conservés.
-Précédemment, il publie en 1906, avec Quelques mots sur la politesse chinoise par le P. Simon Kiong, Appendices sur les fourrures et soieries[1].
+Précédemment, il publie en 1906, avec Quelques mots sur la politesse chinoise par le P. Simon Kiong, Appendices sur les fourrures et soieries.
 </t>
         </is>
       </c>
